--- a/Check.xlsx
+++ b/Check.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1166,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1235,7 +1235,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1557,8 +1556,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3558,7 +3557,7 @@
       <c r="D88" s="5">
         <v>87</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E88" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F88" s="7" t="s">
@@ -3581,7 +3580,7 @@
       <c r="D89" s="5">
         <v>88</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F89" s="7" t="s">
@@ -3604,7 +3603,7 @@
       <c r="D90" s="5">
         <v>89</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F90" s="7" t="s">
@@ -3627,7 +3626,7 @@
       <c r="D91" s="5">
         <v>90</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -3650,7 +3649,7 @@
       <c r="D92" s="5">
         <v>91</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F92" s="7" t="s">

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="149">
   <si>
     <t>Вид тестирования</t>
   </si>
@@ -152,6 +152,9 @@
     <t>Не пройден: обнаружен баг</t>
   </si>
   <si>
+    <t>Не автоматизируется</t>
+  </si>
+  <si>
     <t>7.Сортировка новостей</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
     <t xml:space="preserve"> Сортировка новостей во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
   </si>
   <si>
+    <t>Пройден @FlakyTest</t>
+  </si>
+  <si>
     <t>11. Просмотр новостей.</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
     <t>Фильтрация новостей по категории "Объявление", во вкладке "Панель управления" (Control panel) новостей мобильного приложения "Мобильный хоспис"</t>
   </si>
   <si>
+    <t>Не пройден: обнаружен баг @FlakyTest</t>
+  </si>
+  <si>
     <t>16.  Фильтрация новостей по категории "День рождения".</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
   </si>
   <si>
     <t>Установка приложения</t>
-  </si>
-  <si>
-    <t>Не автоматизируется</t>
   </si>
   <si>
     <t>Совместимость с различными операционными системами и их версиями</t>
@@ -1225,7 +1231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
@@ -1556,8 +1564,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1627,7 +1635,9 @@
       <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" ht="28.5" spans="1:9">
       <c r="A3" s="2"/>
@@ -1648,7 +1658,9 @@
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="57" spans="1:9">
       <c r="A4" s="2"/>
@@ -1669,7 +1681,9 @@
       <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="42.75" spans="1:9">
       <c r="A5" s="2"/>
@@ -1690,7 +1704,9 @@
       <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" ht="42.75" spans="1:9">
       <c r="A6" s="2"/>
@@ -1711,7 +1727,9 @@
       <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="42.75" spans="1:9">
       <c r="A7" s="2"/>
@@ -1732,7 +1750,9 @@
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" ht="28.5" spans="1:9">
       <c r="A8" s="2"/>
@@ -1755,7 +1775,9 @@
       <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="57" spans="1:9">
       <c r="A9" s="2"/>
@@ -1776,7 +1798,9 @@
       <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" ht="42.75" spans="1:9">
       <c r="A10" s="2"/>
@@ -1797,7 +1821,9 @@
       <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" ht="42.75" spans="1:9">
       <c r="A11" s="2"/>
@@ -1818,7 +1844,9 @@
       <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" ht="42.75" spans="1:9">
       <c r="A12" s="2"/>
@@ -1839,7 +1867,9 @@
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="42.75" spans="1:9">
       <c r="A13" s="2"/>
@@ -1864,7 +1894,9 @@
       <c r="H13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" ht="42.75" spans="1:9">
       <c r="A14" s="2"/>
@@ -1885,7 +1917,9 @@
       <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" ht="42.75" spans="1:9">
       <c r="A15" s="2"/>
@@ -1910,7 +1944,9 @@
       <c r="H15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" ht="42.75" spans="1:9">
       <c r="A16" s="2"/>
@@ -1933,7 +1969,9 @@
       <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" ht="30" spans="1:9">
       <c r="A17" s="2"/>
@@ -1956,19 +1994,21 @@
       <c r="H17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" ht="30" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>13</v>
@@ -1979,19 +2019,21 @@
       <c r="H18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" ht="30" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5">
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
@@ -2002,21 +2044,23 @@
       <c r="H19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" ht="42.75" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5">
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
@@ -2027,7 +2071,9 @@
       <c r="H20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="42.75" spans="1:9">
       <c r="A21" s="2"/>
@@ -2037,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
@@ -2048,7 +2094,9 @@
       <c r="H21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" ht="42.75" spans="1:9">
       <c r="A22" s="2"/>
@@ -2058,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
@@ -2069,7 +2117,9 @@
       <c r="H22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" ht="42.75" spans="1:9">
       <c r="A23" s="2"/>
@@ -2079,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
@@ -2090,7 +2140,9 @@
       <c r="H23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" ht="57" spans="1:9">
       <c r="A24" s="2"/>
@@ -2100,7 +2152,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>17</v>
@@ -2111,7 +2163,9 @@
       <c r="H24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" ht="42.75" spans="1:9">
       <c r="A25" s="2"/>
@@ -2121,7 +2175,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
@@ -2132,7 +2186,9 @@
       <c r="H25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" ht="42.75" spans="1:9">
       <c r="A26" s="2"/>
@@ -2142,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
@@ -2153,7 +2209,9 @@
       <c r="H26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" ht="57" spans="1:9">
       <c r="A27" s="2"/>
@@ -2163,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>17</v>
@@ -2174,7 +2232,9 @@
       <c r="H27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" ht="57" spans="1:9">
       <c r="A28" s="2"/>
@@ -2184,7 +2244,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>17</v>
@@ -2195,7 +2255,9 @@
       <c r="H28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" ht="57" spans="1:9">
       <c r="A29" s="2"/>
@@ -2205,7 +2267,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
@@ -2216,7 +2278,9 @@
       <c r="H29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" ht="57" spans="1:9">
       <c r="A30" s="2"/>
@@ -2226,7 +2290,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>13</v>
@@ -2237,7 +2301,9 @@
       <c r="H30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" ht="57" spans="1:9">
       <c r="A31" s="2"/>
@@ -2247,7 +2313,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>17</v>
@@ -2258,7 +2324,9 @@
       <c r="H31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" ht="42.75" spans="1:9">
       <c r="A32" s="2"/>
@@ -2268,30 +2336,32 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" ht="42.75" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>13</v>
@@ -2302,19 +2372,21 @@
       <c r="H33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" ht="42.75" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5">
         <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>13</v>
@@ -2325,19 +2397,21 @@
       <c r="H34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" ht="42.75" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="5">
         <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>13</v>
@@ -2348,19 +2422,21 @@
       <c r="H35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" ht="42.75" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="5">
         <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>13</v>
@@ -2371,19 +2447,21 @@
       <c r="H36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" ht="57" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D37" s="5">
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>13</v>
@@ -2394,21 +2472,23 @@
       <c r="H37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" ht="42.75" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="5">
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>13</v>
@@ -2416,22 +2496,24 @@
       <c r="G38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="20"/>
+      <c r="H38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" ht="42.75" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" s="5">
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>13</v>
@@ -2439,22 +2521,24 @@
       <c r="G39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="20"/>
+      <c r="H39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" ht="42.75" spans="1:9">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5">
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>13</v>
@@ -2462,22 +2546,24 @@
       <c r="G40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="20"/>
+      <c r="H40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" ht="42.75" spans="1:9">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D41" s="5">
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
@@ -2485,22 +2571,24 @@
       <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="20"/>
+      <c r="H41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" ht="42.75" spans="1:9">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D42" s="5">
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
@@ -2508,22 +2596,24 @@
       <c r="G42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="20"/>
+      <c r="H42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" ht="42.75" spans="1:9">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D43" s="5">
         <v>42</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>13</v>
@@ -2531,22 +2621,24 @@
       <c r="G43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="20"/>
+      <c r="H43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" ht="42.75" spans="1:9">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D44" s="5">
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
@@ -2554,22 +2646,24 @@
       <c r="G44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="20"/>
+      <c r="H44" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" ht="42.75" spans="1:9">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D45" s="5">
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
@@ -2577,22 +2671,24 @@
       <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="20"/>
+      <c r="H45" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" ht="42.75" spans="1:9">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D46" s="5">
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
@@ -2603,7 +2699,9 @@
       <c r="H46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" ht="71.25" spans="1:9">
       <c r="A47" s="2"/>
@@ -2613,7 +2711,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
@@ -2624,19 +2722,21 @@
       <c r="H47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" ht="57" spans="1:9">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5">
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>13</v>
@@ -2647,7 +2747,9 @@
       <c r="H48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" ht="57" spans="1:9">
       <c r="A49" s="2"/>
@@ -2657,7 +2759,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>17</v>
@@ -2668,7 +2770,9 @@
       <c r="H49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" ht="57" spans="1:9">
       <c r="A50" s="2"/>
@@ -2678,7 +2782,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>17</v>
@@ -2689,19 +2793,21 @@
       <c r="H50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" ht="42.75" spans="1:9">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51" s="5">
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>13</v>
@@ -2712,19 +2818,21 @@
       <c r="H51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" ht="42.75" spans="1:9">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D52" s="5">
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>13</v>
@@ -2735,21 +2843,23 @@
       <c r="H52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" ht="42.75" spans="1:9">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D53" s="5">
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>13</v>
@@ -2760,21 +2870,23 @@
       <c r="H53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" ht="42.75" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5">
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>13</v>
@@ -2785,7 +2897,9 @@
       <c r="H54" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="55" ht="42.75" spans="1:9">
       <c r="A55" s="2"/>
@@ -2795,7 +2909,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
@@ -2806,11 +2920,13 @@
       <c r="H55" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2818,7 +2934,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>13</v>
@@ -2830,7 +2946,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:9">
@@ -2841,7 +2957,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
@@ -2853,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2864,7 +2980,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
@@ -2876,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2887,7 +3003,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
@@ -2899,7 +3015,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:9">
@@ -2910,7 +3026,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
@@ -2922,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:9">
@@ -2933,7 +3049,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
@@ -2945,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2956,7 +3072,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>13</v>
@@ -2968,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:9">
@@ -2979,7 +3095,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>13</v>
@@ -2991,7 +3107,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3002,7 +3118,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>13</v>
@@ -3014,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3025,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
@@ -3037,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3048,7 +3164,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
@@ -3060,7 +3176,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="28.5" spans="1:9">
@@ -3071,7 +3187,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
@@ -3083,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="28.5" spans="1:9">
@@ -3094,7 +3210,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>13</v>
@@ -3106,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="28.5" spans="1:9">
@@ -3117,7 +3233,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>13</v>
@@ -3129,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3140,7 +3256,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>13</v>
@@ -3152,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="42.75" spans="1:9">
@@ -3163,7 +3279,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
@@ -3175,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3186,7 +3302,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>13</v>
@@ -3198,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3209,7 +3325,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
@@ -3221,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:9">
@@ -3232,19 +3348,19 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:9">
@@ -3255,7 +3371,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
@@ -3267,7 +3383,7 @@
         <v>15</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3278,7 +3394,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
@@ -3290,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3301,7 +3417,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>13</v>
@@ -3313,7 +3429,7 @@
         <v>15</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3324,7 +3440,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>13</v>
@@ -3336,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" ht="42.75" spans="1:9">
@@ -3347,7 +3463,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>13</v>
@@ -3359,12 +3475,12 @@
         <v>15</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1" spans="1:9">
       <c r="A80" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -3372,7 +3488,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>13</v>
@@ -3384,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3395,7 +3511,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>13</v>
@@ -3407,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3418,7 +3534,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
@@ -3430,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3441,7 +3557,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>17</v>
@@ -3453,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" ht="28.5" spans="1:9">
@@ -3464,7 +3580,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>13</v>
@@ -3476,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" ht="28.5" spans="1:9">
@@ -3487,7 +3603,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>13</v>
@@ -3499,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="28.5" spans="1:9">
@@ -3510,7 +3626,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>13</v>
@@ -3522,7 +3638,7 @@
         <v>15</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="188" customHeight="1" spans="1:9">
@@ -3533,7 +3649,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>13</v>
@@ -3545,12 +3661,12 @@
         <v>15</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -3558,7 +3674,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>17</v>
@@ -3570,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3581,7 +3697,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>17</v>
@@ -3593,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3604,7 +3720,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>17</v>
@@ -3616,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3627,7 +3743,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>17</v>
@@ -3639,7 +3755,7 @@
         <v>15</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3650,7 +3766,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>17</v>
@@ -3662,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="148">
   <si>
     <t>Вид тестирования</t>
   </si>
@@ -149,72 +149,72 @@
     <t>Просмотр новостей на вкладке "Все новости" (ALL NEWS) мобильного приложения "Мобильный хоспис"</t>
   </si>
   <si>
+    <t>Не автоматизируется</t>
+  </si>
+  <si>
+    <t>7.Сортировка новостей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сортировка новостей во вкладке "Все новости" (ALL NEWS) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>8. Фильтр новостей.</t>
+  </si>
+  <si>
+    <t>Фильтр новостей во вкладке "Все новости" (ALL NEWS) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>Панель управления новостями</t>
+  </si>
+  <si>
+    <t>9. Создание новости</t>
+  </si>
+  <si>
+    <t>Создание активной новости с категорией "Объявление" во вкладке "Панели управления" в мобильном приложении "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>Создание активной новости с категорией "День рождения" во вкладке "Панели управления" в мобильном приложении "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле "Категория" (Category) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле "Заголовок" (Title) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"  </t>
+  </si>
+  <si>
+    <t>Поле "Дата публикации" (Publication date) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле "Время" (Time) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
+  </si>
+  <si>
+    <t>Поле "Описание" (Description) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод в поле "Категория" (Category) собственного названия категории, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле "Категория" (Category) состоит из цифр, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
+  </si>
+  <si>
+    <t>Поле "Категория" (Category) состоит из спецсимволов, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле "Дата публикации"  (Publication date) состоит из даты будущего года, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ручной ввод времени в поле "Время" (Time), при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис".</t>
+  </si>
+  <si>
+    <t>Проверка даты создания новости во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Не пройден: обнаружен баг</t>
   </si>
   <si>
-    <t>Не автоматизируется</t>
-  </si>
-  <si>
-    <t>7.Сортировка новостей</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сортировка новостей во вкладке "Все новости" (ALL NEWS) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t>8. Фильтр новостей.</t>
-  </si>
-  <si>
-    <t>Фильтр новостей во вкладке "Все новости" (ALL NEWS) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t>Панель управления новостями</t>
-  </si>
-  <si>
-    <t>9. Создание новости</t>
-  </si>
-  <si>
-    <t>Создание активной новости с категорией "Объявление" во вкладке "Панели управления" в мобильном приложении "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t>Создание активной новости с категорией "День рождения" во вкладке "Панели управления" в мобильном приложении "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле "Категория" (Category) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле "Заголовок" (Title) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"  </t>
-  </si>
-  <si>
-    <t>Поле "Дата публикации" (Publication date) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле "Время" (Time) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
-  </si>
-  <si>
-    <t>Поле "Описание" (Description) пустое, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ввод в поле "Категория" (Category) собственного названия категории, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле "Категория" (Category) состоит из цифр, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
-  </si>
-  <si>
-    <t>Поле "Категория" (Category) состоит из спецсимволов, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле "Дата публикации"  (Publication date) состоит из даты будущего года, при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ручной ввод времени в поле "Время" (Time), при создании новости, во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис".</t>
-  </si>
-  <si>
-    <t>Проверка даты создания новости во вкладке "Панель управления" (Control panel) мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>10. Сортировка новостей.</t>
   </si>
   <si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Фильтрация новостей по категории "Объявление", во вкладке "Панель управления" (Control panel) новостей мобильного приложения "Мобильный хоспис"</t>
-  </si>
-  <si>
-    <t>Не пройден: обнаружен баг @FlakyTest</t>
   </si>
   <si>
     <t>16.  Фильтрация новостей по категории "День рождения".</t>
@@ -1172,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1213,12 +1210,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,9 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -1564,8 +1558,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1973,7 +1967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:9">
+    <row r="17" ht="28.5" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
@@ -1991,49 +1985,49 @@
       <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>40</v>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="5">
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
@@ -2041,26 +2035,26 @@
       <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>40</v>
+      <c r="H19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="42.75" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="5">
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
@@ -2083,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
@@ -2106,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
@@ -2129,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
@@ -2152,7 +2146,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>17</v>
@@ -2175,7 +2169,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
@@ -2198,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
@@ -2221,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>17</v>
@@ -2244,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>17</v>
@@ -2267,7 +2261,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
@@ -2290,7 +2284,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>13</v>
@@ -2313,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>17</v>
@@ -2336,19 +2330,19 @@
         <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>41</v>
+      <c r="I32" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:9">
@@ -2496,24 +2490,24 @@
       <c r="G38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>76</v>
+      <c r="H38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="42.75" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5">
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>13</v>
@@ -2521,24 +2515,24 @@
       <c r="G39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>41</v>
+      <c r="H39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="42.75" spans="1:9">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5">
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>13</v>
@@ -2546,49 +2540,49 @@
       <c r="G40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>41</v>
+      <c r="H40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:9">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="5">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="5">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>41</v>
+      <c r="H41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="42.75" spans="1:9">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5">
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
@@ -2596,24 +2590,24 @@
       <c r="G42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>41</v>
+      <c r="H42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="42.75" spans="1:9">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5">
         <v>42</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>13</v>
@@ -2621,24 +2615,24 @@
       <c r="G43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>41</v>
+      <c r="H43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="42.75" spans="1:9">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5">
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
@@ -2646,24 +2640,24 @@
       <c r="G44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>41</v>
+      <c r="H44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="42.75" spans="1:9">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5">
         <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
@@ -2671,24 +2665,24 @@
       <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>41</v>
+      <c r="H45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="42.75" spans="1:9">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5">
         <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
@@ -2699,8 +2693,8 @@
       <c r="H46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>64</v>
+      <c r="I46" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="71.25" spans="1:9">
@@ -2711,7 +2705,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
@@ -2722,21 +2716,21 @@
       <c r="H47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>64</v>
+      <c r="I47" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="57" spans="1:9">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="5">
         <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>13</v>
@@ -2747,8 +2741,8 @@
       <c r="H48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>64</v>
+      <c r="I48" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:9">
@@ -2759,7 +2753,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>17</v>
@@ -2770,8 +2764,8 @@
       <c r="H49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>15</v>
+      <c r="I49" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="57" spans="1:9">
@@ -2782,7 +2776,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>17</v>
@@ -2793,21 +2787,21 @@
       <c r="H50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>15</v>
+      <c r="I50" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="42.75" spans="1:9">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="5">
         <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>13</v>
@@ -2818,21 +2812,21 @@
       <c r="H51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>15</v>
+      <c r="I51" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="42.75" spans="1:9">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D52" s="5">
         <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>13</v>
@@ -2843,23 +2837,23 @@
       <c r="H52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>15</v>
+      <c r="I52" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="1:9">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="D53" s="5">
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>13</v>
@@ -2870,23 +2864,23 @@
       <c r="H53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>15</v>
+      <c r="I53" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="42.75" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D54" s="5">
         <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>13</v>
@@ -2894,11 +2888,11 @@
       <c r="G54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>40</v>
+      <c r="H54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="42.75" spans="1:9">
@@ -2909,7 +2903,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
@@ -2917,16 +2911,16 @@
       <c r="G55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>40</v>
+      <c r="H55" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2934,7 +2928,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>13</v>
@@ -2946,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:9">
@@ -2957,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
@@ -2969,7 +2963,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2980,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
@@ -2992,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3003,7 +2997,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
@@ -3015,7 +3009,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:9">
@@ -3026,7 +3020,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
@@ -3038,7 +3032,7 @@
         <v>15</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:9">
@@ -3049,7 +3043,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
@@ -3061,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3072,7 +3066,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>13</v>
@@ -3084,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:9">
@@ -3095,7 +3089,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>13</v>
@@ -3107,7 +3101,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3118,7 +3112,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>13</v>
@@ -3130,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3141,7 +3135,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
@@ -3153,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3164,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
@@ -3176,7 +3170,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" ht="28.5" spans="1:9">
@@ -3187,7 +3181,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
@@ -3199,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="28.5" spans="1:9">
@@ -3210,7 +3204,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>13</v>
@@ -3222,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="28.5" spans="1:9">
@@ -3233,7 +3227,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>13</v>
@@ -3245,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3256,7 +3250,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>13</v>
@@ -3268,7 +3262,7 @@
         <v>15</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="42.75" spans="1:9">
@@ -3279,7 +3273,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
@@ -3291,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3302,7 +3296,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>13</v>
@@ -3314,7 +3308,7 @@
         <v>15</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3325,7 +3319,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
@@ -3337,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:9">
@@ -3348,19 +3342,19 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:9">
@@ -3371,7 +3365,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
@@ -3383,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3394,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
@@ -3406,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3417,7 +3411,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>13</v>
@@ -3429,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3440,7 +3434,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>13</v>
@@ -3452,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="42.75" spans="1:9">
@@ -3463,7 +3457,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>13</v>
@@ -3475,12 +3469,12 @@
         <v>15</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1" spans="1:9">
-      <c r="A80" s="21" t="s">
-        <v>134</v>
+      <c r="A80" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -3488,7 +3482,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>13</v>
@@ -3500,18 +3494,18 @@
         <v>15</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="5">
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>13</v>
@@ -3523,18 +3517,18 @@
         <v>15</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="5">
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
@@ -3546,18 +3540,18 @@
         <v>15</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="5">
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>17</v>
@@ -3569,18 +3563,18 @@
         <v>15</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="28.5" spans="1:9">
-      <c r="A84" s="22"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="5">
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>13</v>
@@ -3592,18 +3586,18 @@
         <v>15</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" ht="28.5" spans="1:9">
-      <c r="A85" s="22"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="5">
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>13</v>
@@ -3615,18 +3609,18 @@
         <v>15</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="28.5" spans="1:9">
-      <c r="A86" s="22"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="5">
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>13</v>
@@ -3638,35 +3632,35 @@
         <v>15</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="188" customHeight="1" spans="1:9">
-      <c r="A87" s="22"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="5">
         <v>86</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="23" t="s">
-        <v>143</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -3674,7 +3668,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>17</v>
@@ -3686,18 +3680,18 @@
         <v>15</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="23"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="5">
         <v>88</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>17</v>
@@ -3709,18 +3703,18 @@
         <v>15</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="23"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="5">
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>17</v>
@@ -3732,18 +3726,18 @@
         <v>15</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="23"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="5">
         <v>90</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>17</v>
@@ -3755,18 +3749,18 @@
         <v>15</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="23"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="5">
         <v>91</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>17</v>
@@ -3778,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
